--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -740,6 +740,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4889,13 +4893,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4946,7 +4950,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4964,7 +4968,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4978,7 +4982,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5004,10 +5008,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -5051,7 +5055,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5060,7 +5064,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5078,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5092,7 +5096,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5115,19 +5119,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5176,7 +5180,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5194,13 +5198,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5208,7 +5212,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5231,13 +5235,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5288,7 +5292,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5310,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5320,7 +5324,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5346,10 +5350,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5393,7 +5397,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5402,7 +5406,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5434,7 +5438,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5460,16 +5464,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5518,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5536,13 +5540,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5554,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5573,16 +5577,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5632,7 +5636,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5650,13 +5654,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5664,7 +5668,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5690,14 +5694,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5764,13 +5768,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5778,7 +5782,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5801,17 +5805,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5860,7 +5864,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5878,13 +5882,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5892,7 +5896,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5915,19 +5919,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5980,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5994,13 +5998,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6008,7 +6012,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6031,19 +6035,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6092,7 +6096,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6110,13 +6114,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6127,7 +6131,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6149,7 +6153,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>215</v>
@@ -6240,7 +6244,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6263,16 +6267,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6322,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6337,16 +6341,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6354,7 +6358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6377,13 +6381,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6434,7 +6438,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6452,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6466,7 +6470,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6492,10 +6496,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>163</v>
@@ -6539,7 +6543,7 @@
         <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
@@ -6548,7 +6552,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6566,7 +6570,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6580,7 +6584,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6603,16 +6607,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6662,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6671,7 +6675,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6694,7 +6698,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6720,13 +6724,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6752,13 +6756,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6776,7 +6780,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6808,7 +6812,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6834,13 +6838,13 @@
         <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6890,7 +6894,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6908,7 +6912,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6922,7 +6926,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6945,16 +6949,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7004,7 +7008,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7040,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7059,16 +7063,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7118,7 +7122,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7133,16 +7137,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7150,7 +7154,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7173,16 +7177,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7232,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7250,10 +7254,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7264,7 +7268,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7287,16 +7291,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7346,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7361,16 +7365,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7378,7 +7382,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7401,13 +7405,13 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7458,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7473,16 +7477,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7490,7 +7494,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,13 +7517,13 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7570,7 +7574,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7588,7 +7592,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7602,7 +7606,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7628,10 +7632,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>163</v>
@@ -7684,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7702,7 +7706,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7716,11 +7720,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7742,10 +7746,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>163</v>
@@ -7800,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7832,7 +7836,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7858,10 +7862,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7891,10 +7895,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7912,7 +7916,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7927,10 +7931,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7944,7 +7948,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7967,13 +7971,13 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8024,7 +8028,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -8039,10 +8043,10 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8056,7 +8060,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8082,10 +8086,10 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8115,10 +8119,10 @@
         <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8136,7 +8140,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8151,16 +8155,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8168,7 +8172,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8191,16 +8195,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8250,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8265,24 +8269,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8305,19 +8309,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8366,7 +8370,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8381,16 +8385,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8398,7 +8402,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8421,16 +8425,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8480,7 +8484,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8498,13 +8502,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8512,7 +8516,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8535,16 +8539,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8594,7 +8598,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8609,10 +8613,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8626,7 +8630,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8649,13 +8653,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8706,7 +8710,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8718,13 +8722,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8738,7 +8742,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8761,13 +8765,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8818,7 +8822,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8836,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8850,7 +8854,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8928,7 +8932,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8960,10 +8964,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8985,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9042,7 +9046,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9074,10 +9078,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9099,13 +9103,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9156,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9188,10 +9192,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9213,13 +9217,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9270,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9302,11 +9306,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9328,10 +9332,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>163</v>
@@ -9386,7 +9390,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9418,7 +9422,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9441,13 +9445,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9498,7 +9502,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9516,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9530,7 +9534,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9556,13 +9560,13 @@
         <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9591,10 +9595,10 @@
         <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9612,7 +9616,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9630,13 +9634,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9644,7 +9648,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9667,13 +9671,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9724,7 +9728,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9742,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9756,7 +9760,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9782,10 +9786,10 @@
         <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>163</v>
@@ -9829,7 +9833,7 @@
         <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
@@ -9838,7 +9842,7 @@
         <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9856,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9870,10 +9874,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -9895,13 +9899,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9952,7 +9956,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9984,7 +9988,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10007,19 +10011,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10068,7 +10072,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10086,13 +10090,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10100,7 +10104,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10123,19 +10127,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10184,7 +10188,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10202,13 +10206,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10216,7 +10220,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10242,10 +10246,10 @@
         <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>200</v>
@@ -10277,10 +10281,10 @@
         <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10298,7 +10302,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10316,13 +10320,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10330,7 +10334,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10353,13 +10357,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10410,7 +10414,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10428,7 +10432,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10442,7 +10446,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10468,10 +10472,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10515,7 +10519,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10524,7 +10528,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10542,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10556,10 +10560,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
@@ -10581,13 +10585,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10638,7 +10642,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10670,7 +10674,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10693,19 +10697,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10754,7 +10758,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10772,13 +10776,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10786,7 +10790,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,19 +10813,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10870,7 +10874,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10888,13 +10892,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10906,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10928,13 +10932,13 @@
         <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10963,10 +10967,10 @@
         <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10984,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11002,13 +11006,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11020,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11039,13 +11043,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11096,7 +11100,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11114,7 +11118,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11128,7 +11132,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11154,10 +11158,10 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>163</v>
@@ -11201,7 +11205,7 @@
         <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
@@ -11210,7 +11214,7 @@
         <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11228,7 +11232,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11242,10 +11246,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11267,13 +11271,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11324,7 +11328,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11356,7 +11360,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11379,19 +11383,19 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11440,7 +11444,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11458,13 +11462,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11472,7 +11476,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11495,19 +11499,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11556,7 +11560,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11574,13 +11578,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11588,7 +11592,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11611,16 +11615,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11670,7 +11674,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11688,13 +11692,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11702,7 +11706,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11725,13 +11729,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11782,7 +11786,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11800,7 +11804,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11814,7 +11818,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11840,10 +11844,10 @@
         <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>163</v>
@@ -11887,7 +11891,7 @@
         <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
@@ -11896,7 +11900,7 @@
         <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11914,7 +11918,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11932,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11951,19 +11955,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12012,7 +12016,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12030,13 +12034,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12044,7 +12048,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12070,20 +12074,20 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -12107,10 +12111,10 @@
         <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12128,7 +12132,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12146,13 +12150,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12160,7 +12164,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12183,17 +12187,17 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12242,7 +12246,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12260,13 +12264,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12274,7 +12278,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12300,14 +12304,14 @@
         <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12356,7 +12360,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12365,7 +12369,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12374,13 +12378,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12388,7 +12392,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12414,16 +12418,16 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12452,7 +12456,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12470,7 +12474,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12488,13 +12492,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12502,7 +12506,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12525,16 +12529,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12582,7 +12586,7 @@
         <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12600,13 +12604,13 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12614,10 +12618,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
@@ -12639,16 +12643,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12698,7 +12702,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12716,13 +12720,13 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12730,7 +12734,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12753,13 +12757,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12810,7 +12814,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12828,7 +12832,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12842,7 +12846,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12868,10 +12872,10 @@
         <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>163</v>
@@ -12915,7 +12919,7 @@
         <v>134</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
@@ -12924,7 +12928,7 @@
         <v>135</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12942,7 +12946,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12956,10 +12960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>77</v>
@@ -12981,13 +12985,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13038,7 +13042,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13070,7 +13074,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13093,13 +13097,13 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13150,7 +13154,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13168,7 +13172,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13182,7 +13186,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13205,13 +13209,13 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13262,7 +13266,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13280,7 +13284,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13294,10 +13298,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13319,16 +13323,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13378,7 +13382,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13390,19 +13394,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13410,7 +13414,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13433,16 +13437,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13492,7 +13496,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13510,7 +13514,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
